--- a/202104_SummerTrip.xlsx
+++ b/202104_SummerTrip.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="180">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寄放行李/租借gogoro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辦理入住時間從15:00開始， 退房時間至11:00止
 gogogro 平日前四小免費/後面每小50nt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>彌月蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23(五)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,169 +514,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2(步行)</t>
+    <t>霧峰林家宮保第園區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光復新村 </t>
+  </si>
+  <si>
+    <t>1830-2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中歌劇院-夜間導覽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家菜頭粿糯米腸/越南法國麵包(爌肉飯、麻芛、香菇肉羹、紅茶、麵攤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030-1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹仁商圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萊園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250/235(kkday)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中軟體園區~Dali Art藝術廣場</t>
+  </si>
+  <si>
+    <t>0900-1700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預約導覽1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙記串烤</t>
+  </si>
+  <si>
+    <t>(霧峰民生故事館)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老牌羊肉/龍之軒古早味炸粿/霧峰振卿肉羹大王/肉圓/木瓜牛奶/三大甜品屋/鄒記餡餅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市霧峰區四德路65號（樹仁路與四德路路口） 1630-2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝路觀光夜市</t>
+  </si>
+  <si>
+    <t>1500~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蓮瑞穗臭豆腐</t>
+  </si>
+  <si>
+    <t>花鳥川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐大姐炸香香/味泉米糕/Q氏地瓜球/永德堂/茗陽甘蔗牛奶/阿義紅茶冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提早十分鐘報到，已預約1900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逢甲夜市_炳叔烤玉米逢甲總店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘星山莊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/四月姓林免費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午三點有導覽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>車中寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700兩日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三佳早點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉蛋吐司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市北區健行路748號(假日營業時間：上午4點半～下午12點半)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週二-週日AM9:00~PM17:00
+導覽:斷層館 09:30及14:00/工程館 10:00及14:30/防災館 10:30及15:00/重建館 11:00及15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(國立自然科學博物館921地震教育園區)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亞洲大學+亞洲現代美術館</t>
-  </si>
-  <si>
-    <t>霧峰林家宮保第園區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光復新村 </t>
-  </si>
-  <si>
-    <t>1830-2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中歌劇院-夜間導覽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王家菜頭粿糯米腸/越南法國麵包(爌肉飯、麻芛、香菇肉羹、紅茶、麵攤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030-1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樹仁商圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萊園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250/235(kkday)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中軟體園區~Dali Art藝術廣場</t>
-  </si>
-  <si>
-    <t>0900-1700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國立自然科學博物館921地震教育園區</t>
-  </si>
-  <si>
-    <t>預約導覽1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>週二-週日AM9:00~PM17:00
-導覽:
-斷層館 09:30及14:00
-工程館 10:00及14:30
-防災館 10:30及15:00
-重建館 11:00及15:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趙記串烤</t>
-  </si>
-  <si>
-    <t>(霧峰民生故事館)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老牌羊肉/龍之軒古早味炸粿/霧峰振卿肉羹大王/肉圓/木瓜牛奶/三大甜品屋/鄒記餡餅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中市霧峰區四德路65號（樹仁路與四德路路口） 1630-2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠孝路觀光夜市</t>
-  </si>
-  <si>
-    <t>1500~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月之戀人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彌月蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花蓮瑞穗臭豆腐</t>
-  </si>
-  <si>
-    <t>花鳥川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台中市美村路一段596巷14號，訂位電話: 0905675038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25(日)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐大姐炸香香/味泉米糕/Q氏地瓜球/永德堂/茗陽甘蔗牛奶/阿義紅茶冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提早十分鐘報到，已預約1900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東海大學周圍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路思義教堂、乳品小棧(鮮奶、冰淇淋、牛奶餅乾)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐頂教會、藝術街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逢甲夜市_炳叔烤玉米逢甲總店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摘星山莊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100/四月姓林免費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午三點有導覽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:08-21:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自取蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿行李</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -692,19 +698,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>700兩日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租車</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三佳早點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨備</t>
+    <t>還車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公益門市營業時間為中午12:00-晚上20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市美村路一段596巷14號，訂位電話: 0905675038 
+09:00-晚上21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四張犁夜市/逢甲夜市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宮原眼科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市役所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check in/租借gogoro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504(已刷卡)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -897,6 +936,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -906,7 +985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,13 +1112,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1048,9 +1121,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,39 +1133,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,11 +1190,68 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,55 +1534,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="43" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="38" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="39" customWidth="1"/>
     <col min="4" max="4" width="9" style="38"/>
-    <col min="5" max="5" width="12" style="46" customWidth="1"/>
+    <col min="5" max="5" width="12" style="44" customWidth="1"/>
     <col min="6" max="6" width="18.25" style="38" customWidth="1"/>
     <col min="7" max="7" width="78.75" style="39" customWidth="1"/>
     <col min="8" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>117</v>
+      <c r="A2" s="52" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>89</v>
       </c>
       <c r="D2" s="40"/>
@@ -1479,416 +1594,584 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="24"/>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>148</v>
-      </c>
+      <c r="A5" s="53"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="21">
-        <v>1330</v>
-      </c>
-      <c r="C6" s="51" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="21">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="22" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="24" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="21"/>
       <c r="C8" s="39" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="39" t="s">
-        <v>157</v>
+      <c r="G8" s="24" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="40"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>148</v>
+      </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="22">
+        <v>200</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
-        <v>200</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="22"/>
       <c r="G10" s="24" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>101</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="57"/>
+      <c r="C12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D17" s="21">
+        <v>30</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="21">
+        <v>10</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21">
+        <v>50</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="68"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="76"/>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="38">
-        <v>30</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="39" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="21">
+        <v>3</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21">
+        <v>250</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="21">
+        <v>6</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="68"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="71" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="43" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="C21" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="38">
-        <v>10</v>
-      </c>
-      <c r="F21" s="38">
-        <v>50</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="38">
-        <v>3</v>
-      </c>
-      <c r="F24" s="38">
-        <v>250</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="38">
-        <v>6</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="G28" s="54"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="55" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="30"/>
+      <c r="G30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="41" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="41"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="41" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="41"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>164</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="68"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43" t="s">
-        <v>152</v>
-      </c>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="68"/>
+      <c r="B34" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="21">
+        <v>10</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="39" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="21">
+        <v>6</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="50">
+        <v>320</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="3:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C37" s="58"/>
+      <c r="C38" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="68"/>
+      <c r="B39" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="21">
+        <v>700</v>
+      </c>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="E15:E16"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E35:E36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://sunnylife.tw/aam/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1939,7 +2222,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="15" t="s">
         <v>108</v>
       </c>
@@ -1956,7 +2239,7 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="15" t="s">
         <v>111</v>
       </c>
@@ -1977,7 +2260,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="16">
         <v>1330</v>
       </c>
@@ -1992,8 +2275,8 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="55" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -2011,8 +2294,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="3" t="s">
         <v>106</v>
       </c>
@@ -2022,8 +2305,8 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
@@ -2033,7 +2316,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="37"/>
       <c r="C8" s="3"/>
       <c r="D8" s="28"/>
@@ -2042,7 +2325,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="16" t="s">
         <v>97</v>
       </c>
@@ -2061,7 +2344,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>104</v>
@@ -2083,7 +2366,7 @@
       <c r="G11" s="32"/>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2100,8 +2383,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2115,8 +2398,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2128,8 +2411,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -2141,8 +2424,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2154,7 +2437,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2172,8 +2455,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2181,15 +2464,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
@@ -2198,14 +2481,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="63" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="23" t="s">
@@ -2213,25 +2496,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="64"/>
       <c r="G23" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="64"/>
       <c r="G24" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
@@ -2243,7 +2526,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +2541,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>

--- a/202104_SummerTrip.xlsx
+++ b/202104_SummerTrip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\2021SUMMER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\旅遊\202104台中\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="4185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2350" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="185">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -744,6 +744,26 @@
   </si>
   <si>
     <t>504(已刷卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中文學館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動漫彩繪巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子藥局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貓頭鷹教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二市場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,6 +1162,63 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1228,18 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,68 +1279,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1534,25 +1563,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="38" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" style="39" customWidth="1"/>
     <col min="4" max="4" width="9" style="38"/>
     <col min="5" max="5" width="12" style="44" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="38" customWidth="1"/>
-    <col min="7" max="7" width="78.75" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="78.7265625" style="39" customWidth="1"/>
     <col min="8" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="45" t="s">
         <v>112</v>
       </c>
@@ -1575,8 +1604,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="71" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="40" t="s">
@@ -1594,8 +1623,8 @@
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:7" ht="31">
+      <c r="A3" s="72"/>
       <c r="B3" s="51"/>
       <c r="C3" s="48" t="s">
         <v>90</v>
@@ -1609,8 +1638,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="72"/>
       <c r="B4" s="40" t="s">
         <v>111</v>
       </c>
@@ -1630,8 +1659,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="72"/>
       <c r="B5" s="51"/>
       <c r="C5" s="48" t="s">
         <v>177</v>
@@ -1641,10 +1670,10 @@
       <c r="F5" s="22"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="72"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="70" t="s">
         <v>176</v>
       </c>
       <c r="D6" s="51"/>
@@ -1652,8 +1681,8 @@
       <c r="F6" s="22"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:7" ht="46.5">
+      <c r="A7" s="72"/>
       <c r="B7" s="21">
         <v>1500</v>
       </c>
@@ -1669,505 +1698,563 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="72"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="72"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="72"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D10" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
-        <v>200</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>101</v>
-      </c>
+      <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="72"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="72"/>
+      <c r="B12" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
+        <v>200</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="72"/>
+      <c r="B13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="42" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="72"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="73"/>
       <c r="B15" s="21"/>
       <c r="C15" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
+        <v>90</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="53" t="s">
+        <v>116</v>
+      </c>
       <c r="B17" s="21" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="21">
-        <v>30</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+        <v>119</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="53"/>
       <c r="B18" s="21"/>
       <c r="C18" s="24" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="53"/>
       <c r="B19" s="21"/>
       <c r="C19" s="24" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="71" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="53"/>
+      <c r="B20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="D20" s="21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="21">
-        <v>50</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
+      <c r="F20" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="53"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="71" t="s">
-        <v>122</v>
+      <c r="C21" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="21"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="53"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="71" t="s">
-        <v>136</v>
+      <c r="C22" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="21"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:9">
+      <c r="A23" s="53"/>
       <c r="B23" s="21"/>
       <c r="C23" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="21">
-        <v>3</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21">
-        <v>250</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+        <v>127</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.5">
+      <c r="A24" s="53"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="71" t="s">
-        <v>135</v>
+      <c r="C24" s="55" t="s">
+        <v>160</v>
       </c>
       <c r="D24" s="21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
+      <c r="F24" s="21">
+        <v>50</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="53"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="71" t="s">
-        <v>131</v>
+      <c r="C25" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="22"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="53"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="71" t="s">
-        <v>139</v>
+      <c r="C26" s="55" t="s">
+        <v>136</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="22"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="53"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="21">
+        <v>3</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21">
+        <v>250</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="53"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="21">
+        <v>6</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="53"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A30" s="53"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="3"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+    <row r="33" spans="1:9">
+      <c r="A33" s="53" t="s">
+        <v>143</v>
+      </c>
       <c r="B33" s="21"/>
-      <c r="C33" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="50" t="s">
-        <v>150</v>
-      </c>
+      <c r="C33" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="30"/>
       <c r="G33" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="21">
-        <v>10</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="50"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="53"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="3"/>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
+    <row r="35" spans="1:9" ht="31">
+      <c r="A35" s="53"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="48" t="s">
-        <v>114</v>
+      <c r="C35" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>179</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="30"/>
       <c r="G35" s="3" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
     </row>
-    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="53"/>
       <c r="B36" s="21"/>
       <c r="C36" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="21">
-        <v>6</v>
-      </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="50">
-        <v>320</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
+    <row r="37" spans="1:9">
+      <c r="A37" s="53"/>
       <c r="B37" s="21"/>
-      <c r="C37" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>167</v>
+    <row r="38" spans="1:9">
+      <c r="A38" s="53"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="71"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="53"/>
       <c r="B39" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="21">
+        <v>10</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="53"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:9" ht="31">
+      <c r="A41" s="53"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="21">
+        <v>6</v>
+      </c>
+      <c r="E41" s="77"/>
+      <c r="F41" s="50">
+        <v>320</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="53"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="53"/>
+      <c r="B43" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="21"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="53"/>
+      <c r="B44" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F44" s="21">
         <v>700</v>
       </c>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="53"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="17">
+      <c r="A46" s="53"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E35:E36"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2186,19 +2273,19 @@
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="16.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" style="11" customWidth="1"/>
     <col min="4" max="4" width="10" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="21" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="22" customWidth="1"/>
-    <col min="7" max="7" width="61.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="61.90625" style="23" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="8" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2221,8 +2308,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
+    <row r="2" spans="1:7" s="8" customFormat="1">
+      <c r="A2" s="80"/>
       <c r="B2" s="15" t="s">
         <v>108</v>
       </c>
@@ -2238,8 +2325,8 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="81"/>
       <c r="B3" s="15" t="s">
         <v>111</v>
       </c>
@@ -2259,8 +2346,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="81"/>
       <c r="B4" s="16">
         <v>1330</v>
       </c>
@@ -2274,9 +2361,9 @@
       <c r="F4" s="30"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="55" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="81"/>
+      <c r="B5" s="78" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -2293,9 +2380,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="56"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="81"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="3" t="s">
         <v>106</v>
       </c>
@@ -2304,9 +2391,9 @@
       <c r="F6" s="30"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="56"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="81"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
@@ -2315,8 +2402,8 @@
       <c r="F7" s="30"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="81"/>
       <c r="B8" s="37"/>
       <c r="C8" s="3"/>
       <c r="D8" s="28"/>
@@ -2324,8 +2411,8 @@
       <c r="F8" s="30"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="81"/>
       <c r="B9" s="16" t="s">
         <v>97</v>
       </c>
@@ -2343,8 +2430,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="82"/>
       <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>104</v>
@@ -2356,7 +2443,7 @@
       <c r="F10" s="30"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="14"/>
       <c r="B11" s="33"/>
       <c r="C11" s="31"/>
@@ -2365,8 +2452,8 @@
       <c r="F11" s="35"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="31">
+      <c r="A13" s="88"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2382,9 +2469,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="67"/>
+    <row r="14" spans="1:7" s="19" customFormat="1">
+      <c r="A14" s="88"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2397,9 +2484,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="62"/>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="31">
+      <c r="A15" s="88"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2410,9 +2497,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="62"/>
+    <row r="16" spans="1:7" s="19" customFormat="1">
+      <c r="A16" s="89"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -2423,9 +2510,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="62"/>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="31">
+      <c r="A17" s="89"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2436,8 +2523,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:7" ht="31">
+      <c r="A18" s="89"/>
       <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2454,25 +2541,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="55"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="89"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="55"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="89"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
@@ -2480,41 +2567,41 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="55" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="89"/>
+      <c r="B22" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="86" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="64"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="89"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="87"/>
       <c r="G23" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="64"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="89"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="87"/>
       <c r="G24" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="89"/>
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
@@ -2525,8 +2612,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="89"/>
       <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
@@ -2540,8 +2627,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:7">
+      <c r="A27" s="89"/>
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
@@ -2561,10 +2648,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="D30" s="24"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" s="1"/>
     </row>
   </sheetData>
@@ -2592,17 +2679,17 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="28.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -2625,7 +2712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>54</v>
@@ -2647,7 +2734,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="12" t="s">
         <v>56</v>
@@ -2670,7 +2757,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
         <v>57</v>
@@ -2693,7 +2780,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>59</v>
@@ -2716,7 +2803,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="17">
         <v>44106</v>
       </c>
@@ -2741,7 +2828,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>64</v>
@@ -2764,7 +2851,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>68</v>
@@ -2787,7 +2874,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>73</v>
@@ -2810,7 +2897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>65</v>
@@ -2833,7 +2920,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>66</v>
@@ -2856,7 +2943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -2879,7 +2966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>70</v>
@@ -2902,7 +2989,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>71</v>
@@ -2925,7 +3012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1">
       <c r="A15" s="17">
         <v>44107</v>
       </c>
@@ -2950,7 +3037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>74</v>
@@ -2973,7 +3060,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>75</v>
@@ -2996,7 +3083,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>84</v>
@@ -3019,7 +3106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>85</v>
@@ -3042,7 +3129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>76</v>
@@ -3065,7 +3152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
@@ -3088,7 +3175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>78</v>
@@ -3111,7 +3198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>79</v>
@@ -3134,7 +3221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>80</v>
@@ -3149,7 +3236,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>81</v>
@@ -3164,7 +3251,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>70</v>
@@ -3179,7 +3266,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>81</v>
@@ -3194,7 +3281,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
@@ -3206,7 +3293,7 @@
         <v>-1036</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="C31" s="7" t="s">
         <v>19</v>
       </c>
@@ -3218,7 +3305,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10">
       <c r="C34" s="7" t="s">
         <v>20</v>
       </c>
@@ -3227,7 +3314,7 @@
         <v>9404</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10">
       <c r="C35" s="7" t="s">
         <v>86</v>
       </c>
@@ -3236,7 +3323,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10">
       <c r="I38" s="4" t="s">
         <v>87</v>
       </c>
@@ -3245,7 +3332,7 @@
         <v>4842</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10">
       <c r="I39" s="4" t="s">
         <v>88</v>
       </c>

--- a/202104_SummerTrip.xlsx
+++ b/202104_SummerTrip.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\旅遊\202104台中\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\other\2021SUMMER\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2350" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2355" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="201">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,68 @@
   <si>
     <t>第二市場</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑金文旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到飽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25(日)_雨備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30-1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>489+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市東區旱溪東路一段456號1樓 營業時間10:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150(60可抵消費)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中自然科學博物館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中自然科學博物館_植物園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新天地西洋博物館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八豆食府壽喜燒專門店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLOOK有折價券240可以抵300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00-11:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道禾六藝文化館 </t>
+  </si>
+  <si>
+    <t>台中市西區林森路33號</t>
   </si>
 </sst>
 </file>
@@ -774,7 +836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,13 +900,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -854,20 +909,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="13"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -896,7 +970,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -957,34 +1031,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -996,16 +1048,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,153 +1181,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,8 +1220,149 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1563,702 +1645,880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9" style="38"/>
-    <col min="5" max="5" width="12" style="44" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="78.7265625" style="39" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="9.75" style="91" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="92"/>
+    <col min="3" max="3" width="33.125" style="94" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="92"/>
+    <col min="5" max="5" width="22.5" style="93"/>
+    <col min="6" max="6" width="22.5" style="92"/>
+    <col min="7" max="7" width="46.5" style="94" customWidth="1"/>
+    <col min="8" max="16384" width="22.5" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="56">
         <v>270</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="31">
-      <c r="A3" s="72"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="48" t="s">
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="34.5">
+      <c r="A3" s="57"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="58" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="72"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="48" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="24"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="72"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="70" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" ht="46.5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="21">
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" ht="34.5">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59">
         <v>1500</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="72"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="23"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="72"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="70" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="58" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="72"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="39" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="72"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22">
+      <c r="E12" s="56"/>
+      <c r="F12" s="56">
         <v>200</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="58" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="72"/>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:7" ht="34.5">
+      <c r="A13" s="57"/>
+      <c r="B13" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="56"/>
+      <c r="G13" s="58" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="72"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="42" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="73"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="53" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="17" spans="1:9" ht="34.5">
+      <c r="A17" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="59"/>
+      <c r="G17" s="58" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="53"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="53"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="53"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="59">
         <v>30</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="58" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="53"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="53"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="24" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="53"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+    </row>
+    <row r="23" spans="1:9" ht="34.5">
+      <c r="A23" s="61"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="55" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.5">
-      <c r="A24" s="53"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="55" t="s">
+    <row r="24" spans="1:9" ht="69">
+      <c r="A24" s="61"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="59">
         <v>10</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="21">
+      <c r="E24" s="56"/>
+      <c r="F24" s="59">
         <v>50</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="58" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="53"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="55" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="53"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="55" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="53"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="59">
         <v>3</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21">
+      <c r="E27" s="56"/>
+      <c r="F27" s="59">
         <v>250</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="53"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="55" t="s">
+    <row r="28" spans="1:9" ht="34.5">
+      <c r="A28" s="61"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="59">
         <v>6</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="55" t="s">
+      <c r="E28" s="56"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="58" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="53"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="55" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="55" t="s">
+      <c r="D29" s="59"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="58" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="55" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="23" t="s">
+      <c r="D30" s="59"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="58" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="59"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="66"/>
-      <c r="H31" s="41"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="53" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+    </row>
+    <row r="33" spans="1:9" ht="34.5">
+      <c r="A33" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="57" t="s">
+      <c r="B33" s="72">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C33" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="76" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="56"/>
+      <c r="G33" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="53"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="57" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-    </row>
-    <row r="35" spans="1:9" ht="31">
-      <c r="A35" s="53"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="57" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+    </row>
+    <row r="35" spans="1:9" ht="34.5">
+      <c r="A35" s="75"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="56"/>
+      <c r="G35" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="53"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="75"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="53"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="53"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="24" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="50" t="s">
+      <c r="D38" s="59"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="53"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="59">
         <v>10</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="53"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="48" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-    </row>
-    <row r="41" spans="1:9" ht="31">
-      <c r="A41" s="53"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="24" t="s">
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+    </row>
+    <row r="41" spans="1:9" ht="51.75">
+      <c r="A41" s="75"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="59">
         <v>6</v>
       </c>
       <c r="E41" s="77"/>
-      <c r="F41" s="50">
+      <c r="F41" s="59">
         <v>320</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="53"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="48" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="68" t="s">
+      <c r="D42" s="59"/>
+      <c r="E42" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="53"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="75"/>
+      <c r="B43" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="68" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="53"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="80"/>
+      <c r="B44" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="59"/>
+      <c r="E44" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="59">
         <v>700</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="58"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="53"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" ht="17">
-      <c r="A46" s="53"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="24"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="81"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="82"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="84"/>
+      <c r="C47" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="58"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="85"/>
+      <c r="B48" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="88"/>
+      <c r="B49" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="88"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="58"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="88"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="59">
+        <v>20</v>
+      </c>
+      <c r="G51" s="58"/>
+    </row>
+    <row r="52" spans="1:7" ht="34.5">
+      <c r="A52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="88"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="51.75">
+      <c r="A54" s="88"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="59">
+        <v>6</v>
+      </c>
+      <c r="E54" s="62"/>
+      <c r="F54" s="59">
+        <v>320</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="88"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="59"/>
+      <c r="G55" s="58"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="75"/>
+      <c r="B56" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="59"/>
+      <c r="G56" s="58"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="80"/>
+      <c r="B57" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="59">
+        <v>700</v>
+      </c>
+      <c r="G57" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A33:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2273,15 +2533,15 @@
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="16.6328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="10" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="61.90625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="21" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="61.875" style="23" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2309,7 +2569,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1">
-      <c r="A2" s="80"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="15" t="s">
         <v>108</v>
       </c>
@@ -2326,7 +2586,7 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="15" t="s">
         <v>111</v>
       </c>
@@ -2347,7 +2607,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="16">
         <v>1330</v>
       </c>
@@ -2362,8 +2622,8 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="38" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -2381,8 +2641,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="3" t="s">
         <v>106</v>
       </c>
@@ -2392,8 +2652,8 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
@@ -2402,8 +2662,8 @@
       <c r="F7" s="30"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
-      <c r="A8" s="81"/>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="41"/>
       <c r="B8" s="37"/>
       <c r="C8" s="3"/>
       <c r="D8" s="28"/>
@@ -2412,7 +2672,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="16" t="s">
         <v>97</v>
       </c>
@@ -2431,7 +2691,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="82"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>104</v>
@@ -2452,8 +2712,8 @@
       <c r="F11" s="35"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="31">
-      <c r="A13" s="88"/>
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="31.5">
+      <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -2470,8 +2730,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="19" customFormat="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
@@ -2484,9 +2744,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="31">
-      <c r="A15" s="88"/>
-      <c r="B15" s="85"/>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="31.5">
+      <c r="A15" s="48"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
@@ -2498,8 +2758,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="19" customFormat="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="11" t="s">
         <v>29</v>
       </c>
@@ -2510,9 +2770,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" ht="31">
-      <c r="A17" s="89"/>
-      <c r="B17" s="85"/>
+    <row r="17" spans="1:7" s="19" customFormat="1" ht="31.5">
+      <c r="A17" s="49"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
@@ -2523,8 +2783,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31">
-      <c r="A18" s="89"/>
+    <row r="18" spans="1:7" ht="31.5">
+      <c r="A18" s="49"/>
       <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2542,8 +2802,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2551,15 +2811,15 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="89"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="89"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
@@ -2568,14 +2828,14 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="89"/>
-      <c r="B22" s="78" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="46" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="23" t="s">
@@ -2583,25 +2843,25 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="89"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="87"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="47"/>
       <c r="G23" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="89"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="87"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="47"/>
       <c r="G24" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="89"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2873,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="89"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +2888,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="89"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
@@ -2679,13 +2939,13 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="28.08984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
